--- a/PVT_Table.xlsx
+++ b/PVT_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,2586 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.254535826237579</v>
+      </c>
+      <c r="D2" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.6062302863155948+0j)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9946600858750002</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.009054714121499998</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.7577297e-06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.580666666666667e-06</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>(0.9533921466485554+0j)</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>48.88373187354984</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>(15.649948082684052+0j)</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>69.00849946101692</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.747536727221199</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>(0.026610235797007234+0j)</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4387.8675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.254974339910988</v>
+      </c>
+      <c r="D3" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.6139712676572858+0j)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9949700335691154</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.008974106040724791</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.768065849584999e-06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.723281297805825e-06</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>(0.9415057563735253+0j)</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>48.86665089894176</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>(15.452632731806569+0j)</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>68.98700230576536</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.723552269936684</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>(0.02622474528214012+0j)</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4275.735</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.255436019453833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.6222212434380106+0j)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9952807216905586</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008887236073330858</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.77840199917e-06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.873376156380132e-06</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>(0.929773239781723+0j)</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>48.84868046261704</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>(15.247747657357095+0j)</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>68.9654672336161</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.700003946332586</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>(0.025831967533169232+0j)</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4163.6025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.255922750351813</v>
+      </c>
+      <c r="D5" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(0.6310348664514444+0j)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9955921502393299</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.008794104219318203</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.788738148755e-06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.031555605992648e-06</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>(0.9182142823598238+0j)</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>48.8297492328897</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>(15.034783355698728+0j)</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>68.94389432811384</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.676904346498784</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>(0.025431644414676855+0j)</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4051.47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.256436628407315</v>
+      </c>
+      <c r="D6" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(0.6404746795098538+0j)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9959043192154291</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.008694710478686819</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.79907429834e-06</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.198490918111205e-06</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>(0.9068511741782997+0j)</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>48.80977804133163</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>(14.813189046365386+0j)</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>68.92228367286771</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.654266264755835</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>(0.02502352089835728+0j)</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3939.3375</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.256979989904775</v>
+      </c>
+      <c r="D7" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(0.6506125058879052+0j)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9962172286188563</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.008589054851436712</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.809410447925e-06</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.374929794667251e-06</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>(0.8957091781691466+0j)</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>48.78867877618802</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>(14.58237033738228+0j)</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>68.90063535155046</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.632102745823658</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>(0.02460735021611225+0j)</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3827.205</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.257555447121139</v>
+      </c>
+      <c r="D8" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(0.6615311189805471+0j)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9965308784496115</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.008477137337567881</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.81974659751e-06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.561707564658805e-06</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>(0.8848169449283373+0j)</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>48.76635308284155</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>(14.3416873897186+0j)</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>68.87894944789782</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.61042713706456</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>(0.024182900676944452+0j)</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3715.0725</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.258165930319997</v>
+      </c>
+      <c r="D9" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(0.6733262509482707+0j)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9968452687076947</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.008358957937080325</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.830082747095e-06</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.759760408444251e-06</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>(0.8742069750562729+0j)</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>48.74269083090068</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>(14.09045391239118+0j)</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>68.85722604570773</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.589253147594394</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>(0.0237499645778324+0j)</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3602.94</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.258814737653818</v>
+      </c>
+      <c r="D10" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(0.6861090124597964+0j)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.997160399393106</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.008234516649974042</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.84041889668e-06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.970141051474629e-06</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>(0.8639161268441666+0j)</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>48.7175682975085</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>(13.827937448272015+0j)</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>68.83546522883965</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.568594915190315</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>(0.02330836972391945+0j)</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3490.8075</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.25950559476796</v>
+      </c>
+      <c r="D11" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(0.7000088100060307+0j)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9974762705058452</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.008103813476249033</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.850755046265e-06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.194037482731432e-06</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>(0.8539861620308684+0j)</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>48.69084600363236</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>(13.553361573989347+0j)</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>68.81366708121381</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.548467082085822</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>(0.022857994154139038+0j)</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3378.675</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.26024272638061</v>
+      </c>
+      <c r="D12" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>(0.7151768635716177+0j)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9977928820459124</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.007966848415905305</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.86109119585e-06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.432795400563831e-06</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>(0.8444643145061284+0j)</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>48.66236612345959</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>(13.265910840024919+0j)</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>68.79183168681053</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.528884880940169</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>(0.02239878473230603+0j)</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3266.5425</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.261030942743166</v>
+      </c>
+      <c r="D13" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>(0.7317904455179635+0j)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9981102340133076</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.007823621468942849</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.871427345434999e-06</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.687945281593612e-06</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>(0.8354038552381218+0j)</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>48.63194936529838</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>(12.964739516753987+0j)</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>68.76995912966947</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.509864232507879</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>(0.021930780284527707+0j)</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3154.41</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.261875744719468</v>
+      </c>
+      <c r="D14" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>(0.7500579811565443+0j)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9984283264080308</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.007674132635361666</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.88176349502e-06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.961235223068658e-06</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>(0.8268646104494354+0j)</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>48.59939119377702</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>(12.648985472243941+0j)</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>68.74804949388894</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.49142185682604</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>(0.02145413989565935+0j)</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3042.2775</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.26278345233559</v>
+      </c>
+      <c r="D15" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>(0.7702251721843232+0j)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9987471592300819</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.00751838191516176</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.892099644605e-06</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.254671048252502e-06</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>(0.8189133680261383+0j)</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>48.56445722513506</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>(12.317790757323227+0j)</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>68.72610286362513</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.473575400095843</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>(0.02096917676402171+0j)</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2930.145</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.263761363152596</v>
+      </c>
+      <c r="D16" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>(0.7925823265253295+0j)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9990667324794611</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.007356369308343129</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.90243579419e-06</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.570565620472708e-06</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>(0.8116240795263022+0j)</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>48.52687757645516</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>(11.970330638815408+0j)</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>68.70411932309148</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.456343579878733</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>(0.020476397558743673+0j)</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2818.0125</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.26481794885853</v>
+      </c>
+      <c r="D17" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>(0.8174731039444105+0j)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9993870461561684</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.007188094814905772</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.912771943775e-06</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.911599930802295e-06</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>(0.8050777330429679+0j)</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>48.48633988069653</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>(11.605852793457663+0j)</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>68.68209895655785</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.439746351780317</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>(0.01997654643187575+0j)</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2705.88</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.265963101290549</v>
+      </c>
+      <c r="D18" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>(0.8453049222821801+0j)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9997081002602035</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.007013558434849694</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.92310809336e-06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.280899374695109e-06</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>(0.799361740093977+0j)</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>48.4424805849734</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>(11.223727978982042+0j)</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>68.66004184834995</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.423805101488301</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>(0.019470651601364977+0j)</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2593.7475</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.267208443020643</v>
+      </c>
+      <c r="D19" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>(0.8765613280964788+0j)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.000029894791567</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.006832760168174886</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.933444242945e-06</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.682129814101026e-06</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>(0.7945686563734261+0j)</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>48.39487401881296</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>(10.82351251747842+0j)</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>68.6379480828485</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.408542866906705</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>(0.01896007069367145+0j)</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2481.615</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.268567723175386</v>
+      </c>
+      <c r="D20" t="n">
+        <v>698.9440267990235</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>(0.9118167451789717+0j)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.000352429750258</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.006645700014881355</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.94378039253e-06</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.011961968314989e-05</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Undersaturated</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>(0.7907940560869902+0j)</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>48.34301853593784</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>(10.40502113736411+0j)</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>68.61581774448857</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.393984596244755</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>(0.018446528902577756+0j)</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2369.4825</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.244222909514992</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.4729469368347</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>(0.9517542224081031+0j)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.000675705136277</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0064523779749691</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.954116542115e-06</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.370587189186183e-06</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>(0.7881334222049026+0j)</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>49.07872038706929</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>(9.96840600610607+0j)</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>68.59365091775888</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.437674267201667</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>(0.017932141820398564+0j)</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2257.35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.233548552240914</v>
+      </c>
+      <c r="D22" t="n">
+        <v>633.7797860544545</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>(0.9971871828646831+0j)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.000999720949624</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.00625279404843812</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.9644526917e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.005300693490457e-05</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>(0.7866780202836348+0j)</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>49.21251723200585</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>(9.5142343082815+0j)</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>68.57144768720106</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.509038355092766</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>(0.01741941321507828+0j)</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2145.2175</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.222923782623132</v>
+      </c>
+      <c r="D23" t="n">
+        <v>596.4640442985537</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>(1.0490868328170642+0j)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.001324477190299</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.006046948235288414</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.974788841285e-06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.082382990598353e-05</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>(0.7865099017189977+0j)</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>49.34958693231494</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>(9.043553126592467+0j)</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>68.54920813740894</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.587652318740579</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>(0.016911198082676847+0j)</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2033.085</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.212350946120809</v>
+      </c>
+      <c r="D24" t="n">
+        <v>559.5411568795328</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>(1.1086179539660659+0j)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.001649973858302</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.005834840535519983</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.98512499087e-06</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.170008081479449e-05</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>(0.7876964188645765+0j)</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>49.49002417650422</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>(8.557927889448697+0j)</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>68.52693235302785</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.674626649530944</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>(0.016410624097229178+0j)</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1920.9525</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.201832634518829</v>
+      </c>
+      <c r="D25" t="n">
+        <v>523.0280621594396</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>(1.1771874361821062+0j)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.001976210953634</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.005616470949132829</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.995461140455e-06</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.270326275567459e-05</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>(0.790284877508425+0j)</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>49.6339267705721</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>(8.059440846361593+0j)</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>68.50462041875394</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.771301347689846</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>(0.015920970710928916+0j)</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1808.82</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.191371727692468</v>
+      </c>
+      <c r="D26" t="n">
+        <v>486.9434427968577</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>(1.2565123266625504+0j)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.002303188476293</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.005391839476126948</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.00579729004e-06</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.386089040073957e-05</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>(0.7942981151582282+0j)</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>49.78139569480273</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>(7.550640217107641+0j)</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>68.48227241933347</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.87930620668381</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>(0.015445514008887608+0j)</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1696.6875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.180971445486211</v>
+      </c>
+      <c r="D27" t="n">
+        <v>451.3080226540529</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>(1.3487177380046544+0j)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.00263090642628</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.005160946116502344</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.016133439625e-06</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.520868593196541e-05</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>(0.7997317841269211+0j)</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>49.93253513578582</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>(7.034438889360114+0j)</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>68.45988843956196</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.000640460927619</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>(0.01498735475956542+0j)</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1584.555</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.170635412988918</v>
+      </c>
+      <c r="D28" t="n">
+        <v>416.1449368288563</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>(1.4564803983162313+0j)</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.002959364803595</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.004923790870259013</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.02646958921e-06</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.679379229730795e-05</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>(0.8065538888495059+0j)</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>50.08745247962117</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>(6.513971982017587+0j)</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>68.43746856428373</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.13777918895769</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>(0.014549253577938737+0j)</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1472.4225</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.160367743861731</v>
+      </c>
+      <c r="D29" t="n">
+        <v>381.480199167123</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>(1.5832424456934253+0j)</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.003288563608238</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004680373737396958</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.036805738794999e-06</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.867959015966267e-05</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>(0.8147067169895951+0j)</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>50.24625824436217</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>(5.992431881040457+0j)</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>68.41501287839098</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.29381713801676</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>(0.01413349778599452+0j)</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1360.29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.150173148474222</v>
+      </c>
+      <c r="D30" t="n">
+        <v>347.3433021581751</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>(1.733535316760409+0j)</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.003618502840209</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.004430694717916179</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.04714188838e-06</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.095312028380886e-05</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>(0.8241108394618077+0j)</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>50.40906591663379</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>(5.472904079462146+0j)</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>68.39252146682324</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.472665549939351</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>(0.013741818601029356+0j)</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1248.1575</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.140057076902631</v>
+      </c>
+      <c r="D31" t="n">
+        <v>313.768000456449</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>(1.913481385565143+0j)</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.003949182499508</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.004174753811816675</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.057478037965e-06</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.373688755393808e-05</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>(0.8346704908448748+0j)</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>50.57599163493756</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>(4.958225660600112+0j)</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>68.36999441456652</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.679325020519904</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>(0.013375366722662313+0j)</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1136.025</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.130025912198133</v>
+      </c>
+      <c r="D32" t="n">
+        <v>280.7933553862707</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>(2.1315940415414194+0j)</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.004280602586135</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.003912551019098445</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.06781418755e-06</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.720833399904968e-05</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>(0.8462794859306951+0j)</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>50.74715362248796</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>(4.4508815103128505+0j)</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>68.34743180665274</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.920268816437336</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>(0.013034743084555725+0j)</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1023.8925</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.120087238357728</v>
+      </c>
+      <c r="D33" t="n">
+        <v>248.4651610377266</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>(2.400102817467208+0j)</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.004612763100091</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.00364408633976149</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.078150337135e-06</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.163337751934244e-05</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>(0.8588268938399186+0j)</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>50.92267119938039</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>(3.952944198033038+0j)</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>68.32483372815894</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.203988542086144</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>(0.012720073193608699+0j)</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>911.76</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.110250223330688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>216.8379472604707</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>(2.737253819558828+0j)</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.004945664041374</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.003369359773805812</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.088486486719999e-06</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.742722368980249e-05</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>(0.8722019090378683+0j)</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>51.10266306287794</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>(3.4660550801674925+0j)</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>68.30220026420662</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.541780653394139</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>(0.012431110065650005+0j)</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>799.6275000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.100526186927646</v>
+      </c>
+      <c r="D35" t="n">
+        <v>185.9778904590802</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>(3.171541789844043+0j)</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.005279305409985</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.003088371321231408</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.098822636305e-06</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.52717406256166e-05</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>(0.8862976279298656+0j)</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>51.28724423648334</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>(2.9914385922237154+0j)</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>68.27953149996104</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3.948891698512249</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>(0.012167352239471435+0j)</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>687.495</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.09092948200035</v>
+      </c>
+      <c r="D36" t="n">
+        <v>155.9672245229458</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>(3.750078960910636+0j)</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.005613687205924</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.002801120982038278</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.109158785890001e-06</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.636033296695624e-05</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>(0.9010136769522814+0j)</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>51.47652045751007</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>(2.5299393975122837+0j)</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>68.25682752063051</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.446193763379222</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>(0.011928168589767453+0j)</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>575.3625</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.081478942812114</v>
+      </c>
+      <c r="D37" t="n">
+        <v>126.9112873281449</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>(4.556744783895799+0j)</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.005948809429191</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.002507608756226425</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.119494935475e-06</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.296240442805311e-05</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>(0.9162578006305466+0j)</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>51.67057726569676</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>(2.0820723909137637+0j)</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>68.23408841146565</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.062616192131729</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>(0.011712929961701209+0j)</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>463.23</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.072200453315847</v>
+      </c>
+      <c r="D38" t="n">
+        <v>98.95057942132843</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>(5.756691069065412+0j)</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.006284672079786</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.002207834643795846</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.12983108506e-06</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.991005690049844e-05</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>(0.9319466009377125+0j)</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>51.8694570260004</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>(1.6480774099503694+0j)</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>68.21131425775877</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.838537510850152</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>(0.011521160772403241+0j)</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>351.0975</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.063132005696056</v>
+      </c>
+      <c r="D39" t="n">
+        <v>72.28343247785931</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>(7.726125465167933+0j)</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.006621275157709</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001901798644746542</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.140167234644999e-06</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0001493290046101756</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>(0.948005639025232+0j)</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>52.0731045636961</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>(1.2279728758952437+0j)</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>68.18850514484313</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.829899966984579</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>(0.01135275092048688+0j)</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>238.965</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.054335359905654</v>
+      </c>
+      <c r="D40" t="n">
+        <v>47.214899182256</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>(11.547489006681602+0j)</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.00695861866296</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.001589500759078513</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.15050338423e-06</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0002608733160994222</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>(0.9643690887263817+0j)</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>52.28121312898111</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>(0.8216048096257212+0j)</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>68.16566115809229</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8.110470191123385</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>(0.011208348572344633+0j)</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>126.8325</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.045931279641431</v>
+      </c>
+      <c r="D41" t="n">
+        <v>24.28897631630451</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>(22.131342877053473-2.766912613761928e-16j)</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.007296702595539</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.00127094098679176</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.160839533815e-06</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0006536271557608194</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>(0.9809790820765654-1.2264431539979021e-17j)</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>52.49262350561588</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>(0.4286894184277757+5.359576080961244e-18j)</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>68.14278238291932</v>
+      </c>
+      <c r="O41" t="n">
+        <v>9.758273235721711</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>(0.011090405632342424+1.4270978351669292e-21j)</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.038317918004092</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.877087995967183</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>(194.22186250179323-6.165199413728497e-11j)</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.007635526955446</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0009461193278862812</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.171175683399999e-06</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01487319437105165</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Saturated</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>(0.9977847832446916-3.1672758573358814e-13j)</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>52.69953908080339</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>(0.048848633129044104+1.5506058918873798e-14j)</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>68.11986890477614</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>(0.011008804726564502+2.075422924757568e-18j)</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.681078301000175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
